--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value130.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value130.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9638820381324136</v>
+        <v>0.3737415969371796</v>
       </c>
       <c r="B1">
-        <v>1.72907400529209</v>
+        <v>1.21735942363739</v>
       </c>
       <c r="C1">
-        <v>3.700358898887395</v>
+        <v>4.909544467926025</v>
       </c>
       <c r="D1">
-        <v>2.567097886580465</v>
+        <v>1.512856125831604</v>
       </c>
       <c r="E1">
-        <v>1.047055940510843</v>
+        <v>0.7582865357398987</v>
       </c>
     </row>
   </sheetData>
